--- a/Division_Enrollment.xlsx
+++ b/Division_Enrollment.xlsx
@@ -5727,7 +5727,7 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K59" t="n">
         <v>31</v>
@@ -5744,7 +5744,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -5777,7 +5777,7 @@
         </is>
       </c>
       <c r="V59" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="60">
@@ -6012,7 +6012,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -6027,7 +6027,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -6102,7 +6102,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K70" t="n">
         <v>25</v>
@@ -6758,7 +6758,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -6791,7 +6791,7 @@
         </is>
       </c>
       <c r="V70" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="71">
@@ -6827,7 +6827,7 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K71" t="n">
         <v>25</v>
@@ -6844,17 +6844,13 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Contact Instructor</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
@@ -6881,7 +6877,7 @@
         </is>
       </c>
       <c r="V71" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="72">
@@ -7547,7 +7543,7 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K79" t="n">
         <v>15</v>
@@ -7564,7 +7560,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -7597,7 +7593,7 @@
         </is>
       </c>
       <c r="V79" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="80">
@@ -7633,7 +7629,7 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K80" t="n">
         <v>31</v>
@@ -7650,17 +7646,13 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Contact Instructor</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
@@ -7687,7 +7679,7 @@
         </is>
       </c>
       <c r="V80" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -7723,7 +7715,7 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K81" t="n">
         <v>31</v>
@@ -7740,7 +7732,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
@@ -7773,7 +7765,7 @@
         </is>
       </c>
       <c r="V81" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="82">
@@ -9007,7 +8999,7 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K95" t="n">
         <v>30</v>
@@ -9024,7 +9016,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O95" t="inlineStr"/>
@@ -9057,7 +9049,7 @@
         </is>
       </c>
       <c r="V95" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="96">
@@ -9093,7 +9085,7 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K96" t="n">
         <v>30</v>
@@ -9110,7 +9102,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
@@ -9143,7 +9135,7 @@
         </is>
       </c>
       <c r="V96" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="97">
@@ -9362,7 +9354,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -9377,7 +9369,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -13007,7 +12999,7 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K139" t="n">
         <v>30</v>
@@ -13024,7 +13016,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O139" t="inlineStr"/>
@@ -13057,7 +13049,7 @@
         </is>
       </c>
       <c r="V139" t="n">
-        <v>3.733333333333333</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="140">
@@ -13179,7 +13171,7 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K141" t="n">
         <v>30</v>
@@ -13196,17 +13188,13 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="O141" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Contact Instructor</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr">
@@ -13233,7 +13221,7 @@
         </is>
       </c>
       <c r="V141" t="n">
-        <v>2.4</v>
+        <v>2.266666666666667</v>
       </c>
     </row>
     <row r="142">
@@ -13355,7 +13343,7 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K143" t="n">
         <v>30</v>
@@ -13372,7 +13360,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="O143" t="inlineStr"/>
@@ -13405,7 +13393,7 @@
         </is>
       </c>
       <c r="V143" t="n">
-        <v>3.333333333333333</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="144">
@@ -14149,7 +14137,7 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K152" t="n">
         <v>30</v>
@@ -14166,7 +14154,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="O152" t="inlineStr"/>
@@ -14199,7 +14187,7 @@
         </is>
       </c>
       <c r="V152" t="n">
-        <v>2.933333333333333</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="153">
@@ -14505,7 +14493,7 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K156" t="n">
         <v>30</v>
@@ -14522,7 +14510,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O156" t="inlineStr"/>
@@ -14555,7 +14543,7 @@
         </is>
       </c>
       <c r="V156" t="n">
-        <v>3.2</v>
+        <v>3.066666666666666</v>
       </c>
     </row>
     <row r="157">
@@ -14861,7 +14849,7 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K160" t="n">
         <v>30</v>
@@ -14878,7 +14866,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -14915,7 +14903,7 @@
         </is>
       </c>
       <c r="V160" t="n">
-        <v>4</v>
+        <v>3.866666666666667</v>
       </c>
     </row>
     <row r="161">
@@ -15405,7 +15393,7 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K166" t="n">
         <v>30</v>
@@ -15422,7 +15410,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O166" t="inlineStr"/>
@@ -15455,7 +15443,7 @@
         </is>
       </c>
       <c r="V166" t="n">
-        <v>2.266666666666667</v>
+        <v>2.533333333333333</v>
       </c>
     </row>
     <row r="167">
@@ -15581,7 +15569,7 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K168" t="n">
         <v>30</v>
@@ -15598,7 +15586,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="O168" t="inlineStr"/>
@@ -15631,7 +15619,7 @@
         </is>
       </c>
       <c r="V168" t="n">
-        <v>1.466666666666667</v>
+        <v>1.733333333333333</v>
       </c>
     </row>
     <row r="169">
@@ -15667,7 +15655,7 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K169" t="n">
         <v>30</v>
@@ -15684,7 +15672,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="O169" t="inlineStr"/>
@@ -15717,7 +15705,7 @@
         </is>
       </c>
       <c r="V169" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="170">
@@ -16391,7 +16379,7 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K177" t="n">
         <v>25</v>
@@ -16408,7 +16396,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="O177" t="inlineStr"/>
@@ -16441,7 +16429,7 @@
         </is>
       </c>
       <c r="V177" t="n">
-        <v>2.4</v>
+        <v>2.133333333333333</v>
       </c>
     </row>
     <row r="178">
@@ -16841,7 +16829,7 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K182" t="n">
         <v>25</v>
@@ -16858,7 +16846,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="O182" t="inlineStr"/>
@@ -16891,7 +16879,7 @@
         </is>
       </c>
       <c r="V182" t="n">
-        <v>2.4</v>
+        <v>2.266666666666667</v>
       </c>
     </row>
     <row r="183">
@@ -20771,7 +20759,7 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K225" t="n">
         <v>25</v>
@@ -20788,17 +20776,13 @@
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O225" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr"/>
       <c r="P225" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Contact Instructor</t>
         </is>
       </c>
       <c r="Q225" t="inlineStr">
@@ -20825,7 +20809,7 @@
         </is>
       </c>
       <c r="V225" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="226">
@@ -21417,7 +21401,7 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K232" t="n">
         <v>25</v>
@@ -21434,7 +21418,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O232" t="inlineStr"/>
@@ -21467,7 +21451,7 @@
         </is>
       </c>
       <c r="V232" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="233">
@@ -25797,7 +25781,7 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K280" t="n">
         <v>29</v>
@@ -25814,7 +25798,7 @@
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="O280" t="inlineStr"/>
@@ -25847,7 +25831,7 @@
         </is>
       </c>
       <c r="V280" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="281">
@@ -25969,7 +25953,7 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K282" t="n">
         <v>29</v>
@@ -25986,7 +25970,7 @@
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="O282" t="inlineStr"/>
@@ -26019,7 +26003,7 @@
         </is>
       </c>
       <c r="V282" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="283">
@@ -26141,7 +26125,7 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K284" t="n">
         <v>35</v>
@@ -26158,7 +26142,7 @@
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="O284" t="inlineStr"/>
@@ -26191,7 +26175,7 @@
         </is>
       </c>
       <c r="V284" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="285">
@@ -27529,7 +27513,7 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K300" t="n">
         <v>30</v>
@@ -27546,7 +27530,7 @@
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O300" t="inlineStr"/>
@@ -27579,7 +27563,7 @@
         </is>
       </c>
       <c r="V300" t="n">
-        <v>4.5</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="301">
